--- a/biology/Médecine/Incisive/Incisive.xlsx
+++ b/biology/Médecine/Incisive/Incisive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les incisives (ou dents incisives) font partie des dents antérieures de la denture des mammifères. 
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Humaines
-Un humain possède huit incisives[1] :
+          <t>Humaines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un humain possède huit incisives :
 deux incisives centrales supérieures ;
 deux incisives latérales supérieures ;
 deux incisives centrales inférieures ;
@@ -527,17 +544,7 @@
 Les incisives supérieures centrales sont nettement plus larges que les incisives supérieures latérales. En revanche, les incisives inférieures latérales sont légèrement plus larges que les incisives inférieures centrales.
 Elles servent à couper ou trancher les aliments. 
 Leur forme peuvent être variable : plutôt arrondies, carrées, triangulaires ; plus ou moins en avant ; serrées ou espacées (les « dents du bonheur »).
-Carnivores
-Les chats ou les chiens, par exemple, n'ont pas le même nombre d'incisives que l'Homme (3 par hémiarcade contre 2 chez l'être humain), mais elles sont cependant beaucoup moins développées que leurs canines.
-Ruminants
-Les incisives des ruminants servent à brouter. Les vaches n'ont pas de dents centrales sur leur maxillaire, alors que leur mandibule supporte six incisives placées contigûment au centre (en avant), entourées, à gauche et à droite, de deux canines.
-Rongeurs et lagomorphes
-Les rongeurs et les lagomorphes ont des incisives très développées dont le nombre les distingue. Les rongeurs en ont quatre (deux à la mâchoire supérieure et deux en bas) et les lagomorphes six (deux paires d'incisives en haut et une seule paire en bas).
-Elles croissent indéfiniment pour leur permettre de ronger sans restriction. Ils doivent donc les user en permanence, ce qui pose de graves complications en cas de malocclusion dentaire.
-Les rongeurs ont souvent des incisives pigmentées naturellement avec l'âge. Elles prennent alors progressivement une teinte jaune ou orangé comme chez les castors, les ragondins, les rats ou encore les chinchillas.
-Autres mammifères
-Les marsupiaux (kangourou, opossum, koala…) possèdent 16 incisives.
-La « corne » du narval, un cétacé de l'Arctique, est en fait une incisive du maxillaire gauche.</t>
+</t>
         </is>
       </c>
     </row>
@@ -562,12 +569,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Les incisives dans la culture</t>
+          <t>Types d'incisives</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les incisives de bovidés ont été souvent utilisées durant la Préhistoire comme élément de parure par plusieurs cultures préhistoriques notamment au Gravettien.
+          <t>Carnivores</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chats ou les chiens, par exemple, n'ont pas le même nombre d'incisives que l'Homme (3 par hémiarcade contre 2 chez l'être humain), mais elles sont cependant beaucoup moins développées que leurs canines.
 </t>
         </is>
       </c>
@@ -593,10 +606,158 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Types d'incisives</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ruminants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les incisives des ruminants servent à brouter. Les vaches n'ont pas de dents centrales sur leur maxillaire, alors que leur mandibule supporte six incisives placées contigûment au centre (en avant), entourées, à gauche et à droite, de deux canines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Incisive</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Incisive</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Types d'incisives</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rongeurs et lagomorphes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rongeurs et les lagomorphes ont des incisives très développées dont le nombre les distingue. Les rongeurs en ont quatre (deux à la mâchoire supérieure et deux en bas) et les lagomorphes six (deux paires d'incisives en haut et une seule paire en bas).
+Elles croissent indéfiniment pour leur permettre de ronger sans restriction. Ils doivent donc les user en permanence, ce qui pose de graves complications en cas de malocclusion dentaire.
+Les rongeurs ont souvent des incisives pigmentées naturellement avec l'âge. Elles prennent alors progressivement une teinte jaune ou orangé comme chez les castors, les ragondins, les rats ou encore les chinchillas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Incisive</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Incisive</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Types d'incisives</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres mammifères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les marsupiaux (kangourou, opossum, koala…) possèdent 16 incisives.
+La « corne » du narval, un cétacé de l'Arctique, est en fait une incisive du maxillaire gauche.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Incisive</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Incisive</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les incisives dans la culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les incisives de bovidés ont été souvent utilisées durant la Préhistoire comme élément de parure par plusieurs cultures préhistoriques notamment au Gravettien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Incisive</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Incisive</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Autres dents</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Canine ;
